--- a/Analyses/CAMspiracy/t1_segmentation/outputs/LCA/plot LCA.xlsx
+++ b/Analyses/CAMspiracy/t1_segmentation/outputs/LCA/plot LCA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATEN\PHD\labjsSoftware\livmats studies\Analyses\CAMspiracy\t1_segmentation\outputs\LCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8C59CF-848D-4657-A159-55BFC4EE8D4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9472A15C-2A24-41B3-B60F-A71F7FF65349}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-5445" yWindow="-23505" windowWidth="38400" windowHeight="23505" xr2:uid="{20D4BFE8-B7AE-4E2D-AA01-C18D348630D3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">       1              113          0.19516</t>
   </si>
@@ -60,10 +60,28 @@
     <t>high Acceptability, high certainty (12.1%)</t>
   </si>
   <si>
-    <t>fc_CMQ</t>
+    <t>FC_CMQ</t>
   </si>
   <si>
-    <t>fc_GCBci</t>
+    <t>FC_GCBCI</t>
+  </si>
+  <si>
+    <t>FC_GCBET</t>
+  </si>
+  <si>
+    <t>FC_GCBGM</t>
+  </si>
+  <si>
+    <t>FC_GCBMG</t>
+  </si>
+  <si>
+    <t>FC_GCBPW</t>
+  </si>
+  <si>
+    <t>FC_CRKQS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC_CCSQ </t>
   </si>
 </sst>
 </file>
@@ -161,17 +179,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>low Acceptability, high certainty (19.6%)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="38100" cap="rnd">
               <a:solidFill>
@@ -186,74 +193,65 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$1:$A$17</c:f>
+              <c:f>Tabelle1!$A$1:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>fc_CMQ</c:v>
+                  <c:v>FC_CMQ</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>fc_GCBci</c:v>
+                  <c:v>FC_GCBCI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FC_GCBET</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FC_GCBGM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FC_GCBMG</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FC_GCBPW</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FC_CRKQS</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FC_CCSQ </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$1:$B$17</c:f>
+              <c:f>Tabelle1!$B$1:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.5713600000000001</c:v>
+                  <c:v>-1.65899</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5033700000000001</c:v>
+                  <c:v>-1.05742</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6367400000000001</c:v>
+                  <c:v>-0.78651000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0673400000000002</c:v>
+                  <c:v>-1.13001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9837199999999999</c:v>
+                  <c:v>-1.1585000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.41761</c:v>
+                  <c:v>-1.00783</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5623200000000002</c:v>
+                  <c:v>-0.64734000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.7293000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.3495900000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7075899999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.4754499999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.5996999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.98837</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.77193</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.71692</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.4379999999999997</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.5739299999999998</c:v>
+                  <c:v>-0.67701999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -268,17 +266,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$H$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>medium Acceptability and certainty (38.7%)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="38100" cap="rnd">
               <a:solidFill>
@@ -293,74 +280,65 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$1:$A$17</c:f>
+              <c:f>Tabelle1!$A$1:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>fc_CMQ</c:v>
+                  <c:v>FC_CMQ</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>fc_GCBci</c:v>
+                  <c:v>FC_GCBCI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FC_GCBET</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FC_GCBGM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FC_GCBMG</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FC_GCBPW</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FC_CRKQS</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FC_CCSQ </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$1:$C$17</c:f>
+              <c:f>Tabelle1!$C$1:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3.8035299999999999</c:v>
+                  <c:v>0.13513</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.92787</c:v>
+                  <c:v>0.17910000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.69164</c:v>
+                  <c:v>-3.3689999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.3810200000000004</c:v>
+                  <c:v>0.14829000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.22105</c:v>
+                  <c:v>-3.1130000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.9651299999999998</c:v>
+                  <c:v>-5.6129999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1223400000000003</c:v>
+                  <c:v>-0.11258</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.17746</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.9447399999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.95519</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.1351800000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.8597700000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.2275400000000003</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.5428799999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.8885000000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.2434700000000003</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.7393299999999998</c:v>
+                  <c:v>-0.1283</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -375,17 +353,6 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$H$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>medium Acceptability and certainty (29.7%)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="38100" cap="rnd">
               <a:solidFill>
@@ -400,74 +367,65 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$1:$A$17</c:f>
+              <c:f>Tabelle1!$A$1:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>fc_CMQ</c:v>
+                  <c:v>FC_CMQ</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>fc_GCBci</c:v>
+                  <c:v>FC_GCBCI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FC_GCBET</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FC_GCBGM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FC_GCBMG</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FC_GCBPW</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FC_CRKQS</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FC_CCSQ </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$D$1:$D$17</c:f>
+              <c:f>Tabelle1!$D$1:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.7517800000000001</c:v>
+                  <c:v>1.91828</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8406099999999999</c:v>
+                  <c:v>1.1264700000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6864599999999998</c:v>
+                  <c:v>1.01061</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5153699999999999</c:v>
+                  <c:v>1.2483900000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4251800000000001</c:v>
+                  <c:v>1.4694400000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7436699999999998</c:v>
+                  <c:v>1.3084</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.4047200000000002</c:v>
+                  <c:v>0.91959999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1500900000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.6452800000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.0798199999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.0565099999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.7880099999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.306</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.7376800000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.90428</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.1203099999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.6965499999999998</c:v>
+                  <c:v>0.97269000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -476,113 +434,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B20F-42F9-A3A3-96D4F921442D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$H$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>high Acceptability, high certainty (12.1%)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Tabelle1!$A$1:$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>fc_CMQ</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>fc_GCBci</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle1!$E$1:$E$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>4.9023899999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.8402599999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.6420399999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.2897499999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.9423500000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.9573999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.7547300000000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.2446099999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.8325300000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.9316899999999997</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.1215299999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.6448</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.0800999999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.0118999999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.2529500000000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.3992300000000002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.1436999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-307F-491C-B7B4-442AE99A4CD2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -719,8 +570,8 @@
         <c:axId val="198128112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="6"/>
-          <c:min val="1"/>
+          <c:max val="3"/>
+          <c:min val="-3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1813,14 +1664,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B6A96F-3A3D-4696-8B3A-61FDEA4F9B93}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="5" width="11.42578125" style="4"/>
     <col min="8" max="8" width="36.140625" customWidth="1"/>
   </cols>
@@ -1830,16 +1682,13 @@
         <v>11</v>
       </c>
       <c r="B1" s="4">
-        <v>1.5713600000000001</v>
+        <v>-1.65899</v>
       </c>
       <c r="C1" s="4">
-        <v>3.8035299999999999</v>
+        <v>0.13513</v>
       </c>
       <c r="D1" s="4">
-        <v>2.7517800000000001</v>
-      </c>
-      <c r="E1" s="4">
-        <v>4.9023899999999996</v>
+        <v>1.91828</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
@@ -1853,34 +1702,30 @@
         <v>12</v>
       </c>
       <c r="B2" s="4">
-        <v>1.5033700000000001</v>
+        <v>-1.05742</v>
       </c>
       <c r="C2" s="4">
-        <v>3.92787</v>
+        <v>0.17910000000000001</v>
       </c>
       <c r="D2" s="4">
-        <v>2.8406099999999999</v>
-      </c>
-      <c r="E2" s="4">
-        <v>4.8402599999999998</v>
+        <v>1.1264700000000001</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="B3" s="4">
-        <v>1.6367400000000001</v>
+        <v>-0.78651000000000004</v>
       </c>
       <c r="C3" s="4">
-        <v>3.69164</v>
+        <v>-3.3689999999999998E-2</v>
       </c>
       <c r="D3" s="4">
-        <v>2.6864599999999998</v>
-      </c>
-      <c r="E3" s="4">
-        <v>4.6420399999999997</v>
+        <v>1.01061</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>9</v>
@@ -1890,18 +1735,17 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="B4" s="4">
-        <v>2.0673400000000002</v>
+        <v>-1.13001</v>
       </c>
       <c r="C4" s="4">
-        <v>4.3810200000000004</v>
+        <v>0.14829000000000001</v>
       </c>
       <c r="D4" s="4">
-        <v>3.5153699999999999</v>
-      </c>
-      <c r="E4" s="4">
-        <v>5.2897499999999997</v>
+        <v>1.2483900000000001</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>10</v>
@@ -1911,69 +1755,65 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="B5" s="4">
-        <v>1.9837199999999999</v>
+        <v>-1.1585000000000001</v>
       </c>
       <c r="C5" s="4">
-        <v>4.22105</v>
+        <v>-3.1130000000000001E-2</v>
       </c>
       <c r="D5" s="4">
-        <v>3.4251800000000001</v>
-      </c>
-      <c r="E5" s="4">
-        <v>4.9423500000000002</v>
+        <v>1.4694400000000001</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="B6" s="4">
-        <v>1.41761</v>
+        <v>-1.00783</v>
       </c>
       <c r="C6" s="4">
-        <v>3.9651299999999998</v>
+        <v>-5.6129999999999999E-2</v>
       </c>
       <c r="D6" s="4">
-        <v>2.7436699999999998</v>
-      </c>
-      <c r="E6" s="4">
-        <v>4.9573999999999998</v>
+        <v>1.3084</v>
       </c>
       <c r="N6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="B7" s="4">
-        <v>2.5623200000000002</v>
+        <v>-0.64734000000000003</v>
       </c>
       <c r="C7" s="4">
-        <v>4.1223400000000003</v>
+        <v>-0.11258</v>
       </c>
       <c r="D7" s="4">
-        <v>3.4047200000000002</v>
-      </c>
-      <c r="E7" s="4">
-        <v>4.7547300000000003</v>
+        <v>0.91959999999999997</v>
       </c>
       <c r="N7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="B8" s="4">
-        <v>1.7293000000000001</v>
+        <v>-0.67701999999999996</v>
       </c>
       <c r="C8" s="4">
-        <v>4.17746</v>
+        <v>-0.1283</v>
       </c>
       <c r="D8" s="4">
-        <v>3.1500900000000001</v>
-      </c>
-      <c r="E8" s="4">
-        <v>5.2446099999999998</v>
+        <v>0.97269000000000005</v>
       </c>
       <c r="N8" t="s">
         <v>2</v>
@@ -1981,138 +1821,24 @@
     </row>
     <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="4">
-        <v>1.3495900000000001</v>
-      </c>
-      <c r="C9" s="4">
-        <v>3.9447399999999999</v>
-      </c>
-      <c r="D9" s="4">
-        <v>2.6452800000000001</v>
-      </c>
-      <c r="E9" s="4">
-        <v>4.8325300000000002</v>
-      </c>
       <c r="N9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="4">
-        <v>1.7075899999999999</v>
-      </c>
-      <c r="C10" s="4">
-        <v>3.95519</v>
-      </c>
-      <c r="D10" s="4">
-        <v>3.0798199999999998</v>
-      </c>
-      <c r="E10" s="4">
-        <v>4.9316899999999997</v>
-      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="4">
-        <v>1.4754499999999999</v>
-      </c>
-      <c r="C11" s="4">
-        <v>4.1351800000000001</v>
-      </c>
-      <c r="D11" s="4">
-        <v>3.0565099999999998</v>
-      </c>
-      <c r="E11" s="4">
-        <v>5.1215299999999999</v>
-      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="4">
-        <v>1.5996999999999999</v>
-      </c>
-      <c r="C12" s="4">
-        <v>3.8597700000000001</v>
-      </c>
-      <c r="D12" s="4">
-        <v>2.7880099999999999</v>
-      </c>
-      <c r="E12" s="4">
-        <v>4.6448</v>
-      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="4">
-        <v>1.98837</v>
-      </c>
-      <c r="C13" s="4">
-        <v>4.2275400000000003</v>
-      </c>
-      <c r="D13" s="4">
-        <v>3.306</v>
-      </c>
-      <c r="E13" s="4">
-        <v>5.0800999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="4">
-        <v>1.77193</v>
-      </c>
-      <c r="C14" s="4">
-        <v>3.5428799999999998</v>
-      </c>
-      <c r="D14" s="4">
-        <v>2.7376800000000001</v>
-      </c>
-      <c r="E14" s="4">
-        <v>4.0118999999999998</v>
-      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="4">
-        <v>5.71692</v>
-      </c>
-      <c r="C15" s="4">
-        <v>3.8885000000000001</v>
-      </c>
-      <c r="D15" s="4">
-        <v>3.90428</v>
-      </c>
-      <c r="E15" s="4">
-        <v>5.2529500000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="4">
-        <v>5.4379999999999997</v>
-      </c>
-      <c r="C16" s="4">
-        <v>4.2434700000000003</v>
-      </c>
-      <c r="D16" s="4">
-        <v>4.1203099999999999</v>
-      </c>
-      <c r="E16" s="4">
-        <v>5.3992300000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="4">
-        <v>5.5739299999999998</v>
-      </c>
-      <c r="C17" s="4">
-        <v>3.7393299999999998</v>
-      </c>
-      <c r="D17" s="4">
-        <v>3.6965499999999998</v>
-      </c>
-      <c r="E17" s="4">
-        <v>5.1436999999999999</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
